--- a/Azure-OpenAI-Limits.xlsx
+++ b/Azure-OpenAI-Limits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\GH-Public\RazGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94B85E4-7F7A-488F-A564-E0837609C750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B17A34B-1F7D-46B3-B1F7-72450EA942CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F66F6BE1-C666-4161-BC9D-93CEC6CD013F}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21120" xr2:uid="{F66F6BE1-C666-4161-BC9D-93CEC6CD013F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>! TPM limits [vary per region](https://learn.microsoft.com/en-us/azure/ai-services/openai/quotas-limits#regional-quota-limits). For simplicity, I selected the lower value.</t>
   </si>
   <si>
-    <t>Data as of 2024-02-10. Table excludes [legacy models](https://learn.microsoft.com/en-us/azure/ai-services/openai/concepts/legacy-models), whisper and TTS. See [official docs](https://learn.microsoft.com/en-us/azure/ai-services/openai/concepts/models) for updated info.</t>
+    <t>Data as of 2024-03-16. Table excludes [legacy models](https://learn.microsoft.com/en-us/azure/ai-services/openai/concepts/legacy-models), whisper and TTS. See [here](https://learn.microsoft.com/en-us/azure/ai-services/openai/quotas-limits#regional-quota-limits) for the latest limits.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="74.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -667,7 +667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -688,7 +688,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -709,7 +709,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -730,7 +730,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
@@ -772,7 +772,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +793,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,7 +814,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,7 +856,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,7 +877,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
